--- a/forms/contact/edit_household_member.xlsx
+++ b/forms/contact/edit_household_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7110" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="14400" windowHeight="4867" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
     <t>Edit House Hold Member</t>
   </si>
   <si>
-    <t>edit_household_member</t>
+    <t>contact:edit_household_member</t>
   </si>
   <si>
     <t>data</t>
@@ -549,10 +549,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -603,6 +603,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -618,11 +641,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,54 +657,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,36 +678,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,11 +694,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -793,7 +793,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,19 +823,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,13 +859,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,103 +961,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,7 +973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,30 +1059,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1090,15 +1066,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,141 +1084,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1719,7 +1719,7 @@
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.2916666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="17.2916666666667" defaultRowHeight="13.85"/>
   <cols>
     <col min="1" max="1" width="19.7083333333333" customWidth="1"/>
     <col min="2" max="2" width="22.7083333333333" customWidth="1"/>
@@ -1741,7 +1741,7 @@
     <col min="1014" max="1024" width="9.14166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:27">
+    <row r="1" ht="14.25" customHeight="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="1:27">
+    <row r="2" ht="14.25" customHeight="1" spans="1:27">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1877,7 +1877,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" customHeight="1" spans="1:27">
+    <row r="4" ht="14.25" customHeight="1" spans="1:27">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1916,7 +1916,7 @@
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" customHeight="1" spans="1:27">
+    <row r="5" ht="14.25" customHeight="1" spans="1:27">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" customHeight="1" spans="1:27">
+    <row r="6" ht="14.25" customHeight="1" spans="1:27">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" customHeight="1" spans="1:27">
+    <row r="8" ht="14.25" customHeight="1" spans="1:27">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2056,7 +2056,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" customHeight="1" spans="1:27">
+    <row r="9" ht="14.25" customHeight="1" spans="1:27">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" customHeight="1" spans="1:27">
+    <row r="10" ht="14.25" customHeight="1" spans="1:27">
       <c r="A10" s="12" t="s">
         <v>29</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" customHeight="1" spans="1:27">
+    <row r="11" ht="14.25" customHeight="1" spans="1:27">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
@@ -2173,7 +2173,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" customHeight="1" spans="1:27">
+    <row r="12" ht="14.25" customHeight="1" spans="1:27">
       <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" customHeight="1" spans="1:13">
+    <row r="15" ht="14.25" customHeight="1" spans="1:13">
       <c r="A15" s="13" t="s">
         <v>19</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" customHeight="1" spans="1:13">
+    <row r="16" ht="14.25" customHeight="1" spans="1:13">
       <c r="A16" s="13" t="s">
         <v>43</v>
       </c>
@@ -2314,7 +2314,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" customHeight="1" spans="1:13">
+    <row r="17" ht="14.25" customHeight="1" spans="1:13">
       <c r="A17" s="13" t="s">
         <v>38</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" customHeight="1" spans="1:13">
+    <row r="18" ht="14.25" customHeight="1" spans="1:13">
       <c r="A18" s="13" t="s">
         <v>52</v>
       </c>
@@ -2366,7 +2366,7 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" customHeight="1" spans="1:13">
+    <row r="19" ht="14.25" customHeight="1" spans="1:13">
       <c r="A19" s="13" t="s">
         <v>56</v>
       </c>
@@ -2395,7 +2395,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" customHeight="1" spans="1:13">
+    <row r="20" ht="14.25" customHeight="1" spans="1:13">
       <c r="A20" s="13" t="s">
         <v>61</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" customHeight="1" spans="1:13">
+    <row r="21" ht="14.25" customHeight="1" spans="1:13">
       <c r="A21" s="13" t="s">
         <v>66</v>
       </c>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" customHeight="1" spans="1:13">
+    <row r="22" ht="14.25" customHeight="1" spans="1:13">
       <c r="A22" s="13" t="s">
         <v>38</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:13">
+    <row r="23" ht="14.25" customHeight="1" spans="1:13">
       <c r="A23" s="13" t="s">
         <v>38</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" customHeight="1" spans="1:13">
+    <row r="24" ht="14.25" customHeight="1" spans="1:13">
       <c r="A24" s="13" t="s">
         <v>38</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" customHeight="1" spans="1:13">
+    <row r="25" ht="14.25" customHeight="1" spans="1:13">
       <c r="A25" s="13" t="s">
         <v>38</v>
       </c>
@@ -2553,7 +2553,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" customHeight="1" spans="1:13">
+    <row r="26" ht="14.25" customHeight="1" spans="1:13">
       <c r="A26" s="13" t="s">
         <v>38</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" customHeight="1" spans="1:13">
+    <row r="27" ht="14.25" customHeight="1" spans="1:13">
       <c r="A27" s="13" t="s">
         <v>38</v>
       </c>
@@ -2599,7 +2599,7 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" customHeight="1" spans="1:13">
+    <row r="28" ht="14.25" customHeight="1" spans="1:13">
       <c r="A28" s="13" t="s">
         <v>38</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" customHeight="1" spans="1:13">
+    <row r="29" ht="14.25" customHeight="1" spans="1:13">
       <c r="A29" s="13" t="s">
         <v>38</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" customHeight="1" spans="1:13">
+    <row r="30" ht="14.25" customHeight="1" spans="1:13">
       <c r="A30" s="13" t="s">
         <v>88</v>
       </c>
@@ -2671,7 +2671,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" customHeight="1" spans="1:13">
+    <row r="31" ht="14.25" customHeight="1" spans="1:13">
       <c r="A31" s="13" t="s">
         <v>92</v>
       </c>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="M31" s="13"/>
     </row>
-    <row r="32" customHeight="1" spans="1:13">
+    <row r="32" ht="14.25" customHeight="1" spans="1:13">
       <c r="A32" s="13" t="s">
         <v>92</v>
       </c>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="M32" s="13"/>
     </row>
-    <row r="33" customHeight="1" spans="1:13">
+    <row r="33" ht="14.25" customHeight="1" spans="1:13">
       <c r="A33" s="13" t="s">
         <v>102</v>
       </c>
@@ -2760,7 +2760,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
     </row>
-    <row r="34" customHeight="1" spans="1:13">
+    <row r="34" ht="14.25" customHeight="1" spans="1:13">
       <c r="A34" s="13" t="s">
         <v>106</v>
       </c>
@@ -2787,7 +2787,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" customHeight="1" spans="1:13">
+    <row r="35" ht="14.25" customHeight="1" spans="1:13">
       <c r="A35" s="13" t="s">
         <v>88</v>
       </c>
@@ -2810,7 +2810,7 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
     </row>
-    <row r="36" customHeight="1" spans="1:27">
+    <row r="36" ht="14.25" customHeight="1" spans="1:27">
       <c r="A36" s="14" t="s">
         <v>15</v>
       </c>
@@ -2847,7 +2847,7 @@
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
     </row>
-    <row r="37" customHeight="1" spans="1:27">
+    <row r="37" ht="14.25" customHeight="1" spans="1:27">
       <c r="A37" s="16" t="s">
         <v>38</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
     </row>
-    <row r="38" customHeight="1" spans="1:27">
+    <row r="38" ht="14.25" customHeight="1" spans="1:27">
       <c r="A38" s="16" t="s">
         <v>38</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="Z38" s="10"/>
       <c r="AA38" s="10"/>
     </row>
-    <row r="39" customHeight="1" spans="1:27">
+    <row r="39" ht="14.25" customHeight="1" spans="1:27">
       <c r="A39" s="16" t="s">
         <v>38</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
     </row>
-    <row r="40" customHeight="1" spans="1:27">
+    <row r="40" ht="14.25" customHeight="1" spans="1:27">
       <c r="A40" s="18" t="s">
         <v>25</v>
       </c>
@@ -2983,7 +2983,7 @@
       <c r="Z40" s="10"/>
       <c r="AA40" s="10"/>
     </row>
-    <row r="41" customHeight="1" spans="1:27">
+    <row r="41" ht="14.25" customHeight="1" spans="1:27">
       <c r="A41" s="10" t="s">
         <v>25</v>
       </c>
@@ -30010,7 +30010,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.475" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.475" defaultRowHeight="13.85"/>
   <cols>
     <col min="1" max="1" width="22.4333333333333" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -30021,7 +30021,7 @@
     <col min="24" max="26" width="14.5666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:23">
+    <row r="1" ht="14.25" customHeight="1" spans="1:23">
       <c r="A1" s="4" t="s">
         <v>121</v>
       </c>
@@ -30054,7 +30054,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="1:23">
+    <row r="2" ht="14.25" customHeight="1" spans="1:23">
       <c r="A2" s="6" t="s">
         <v>122</v>
       </c>
@@ -30087,7 +30087,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:23">
+    <row r="3" ht="14.25" customHeight="1" spans="1:23">
       <c r="A3" s="6" t="s">
         <v>122</v>
       </c>
@@ -30120,7 +30120,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" customHeight="1" spans="1:23">
+    <row r="4" ht="14.25" customHeight="1" spans="1:23">
       <c r="A4" s="6" t="s">
         <v>129</v>
       </c>
@@ -30153,7 +30153,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" customHeight="1" spans="1:23">
+    <row r="5" ht="14.25" customHeight="1" spans="1:23">
       <c r="A5" s="6" t="s">
         <v>129</v>
       </c>
@@ -30186,7 +30186,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" customHeight="1" spans="1:23">
+    <row r="6" ht="14.25" customHeight="1" spans="1:23">
       <c r="A6" s="6" t="s">
         <v>136</v>
       </c>
@@ -30219,7 +30219,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" customHeight="1" spans="1:23">
+    <row r="7" ht="14.25" customHeight="1" spans="1:23">
       <c r="A7" s="6" t="s">
         <v>136</v>
       </c>
@@ -30252,7 +30252,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" customHeight="1" spans="1:23">
+    <row r="8" ht="14.25" customHeight="1" spans="1:23">
       <c r="A8" s="6" t="s">
         <v>139</v>
       </c>
@@ -30285,7 +30285,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" customHeight="1" spans="1:23">
+    <row r="9" ht="14.25" customHeight="1" spans="1:23">
       <c r="A9" s="6" t="s">
         <v>139</v>
       </c>
@@ -30318,7 +30318,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" customHeight="1" spans="1:23">
+    <row r="10" ht="14.25" customHeight="1" spans="1:23">
       <c r="A10" s="6" t="s">
         <v>139</v>
       </c>
@@ -30351,7 +30351,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" customHeight="1" spans="1:23">
+    <row r="11" ht="14.25" customHeight="1" spans="1:23">
       <c r="A11" s="6" t="s">
         <v>139</v>
       </c>
@@ -30384,7 +30384,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" customHeight="1" spans="1:23">
+    <row r="12" ht="14.25" customHeight="1" spans="1:23">
       <c r="A12" s="6" t="s">
         <v>139</v>
       </c>
@@ -30417,7 +30417,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" customHeight="1" spans="1:23">
+    <row r="13" ht="14.25" customHeight="1" spans="1:23">
       <c r="A13" s="6" t="s">
         <v>139</v>
       </c>
@@ -30450,7 +30450,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" ht="13.9" spans="1:4">
       <c r="A14" s="8" t="s">
         <v>53</v>
       </c>
@@ -30464,7 +30464,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" ht="13.9" spans="1:4">
       <c r="A15" s="8" t="s">
         <v>53</v>
       </c>
@@ -31469,10 +31469,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.2916666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="17.2916666666667" defaultRowHeight="13.85"/>
   <cols>
     <col min="1" max="1" width="28.1416666666667" customWidth="1"/>
     <col min="2" max="2" width="12.7083333333333" customWidth="1"/>
@@ -31484,7 +31484,7 @@
     <col min="17" max="26" width="15.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:26">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
@@ -31526,7 +31526,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="1:26">
+    <row r="2" ht="14.25" customHeight="1" spans="1:26">
       <c r="A2" s="2" t="s">
         <v>171</v>
       </c>
@@ -31535,7 +31535,7 @@
       </c>
       <c r="C2" s="3" t="str">
         <f ca="1">TEXT(NOW(),"yyyy-mm-dd_HH-MM")</f>
-        <v>2024-08-27 0-24</v>
+        <v>2024-09-02 23-51</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
@@ -31565,7 +31565,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:26">
+    <row r="3" ht="14.25" customHeight="1" spans="1:26">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -31593,7 +31593,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" customHeight="1" spans="1:26">
+    <row r="4" ht="14.25" customHeight="1" spans="1:26">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -31621,7 +31621,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" customHeight="1" spans="1:26">
+    <row r="5" ht="14.25" customHeight="1" spans="1:26">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -31649,7 +31649,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" customHeight="1" spans="1:26">
+    <row r="6" ht="14.25" customHeight="1" spans="1:26">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -31677,7 +31677,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" customHeight="1" spans="1:26">
+    <row r="7" ht="14.25" customHeight="1" spans="1:26">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -31705,7 +31705,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" customHeight="1" spans="1:26">
+    <row r="8" ht="14.25" customHeight="1" spans="1:26">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -31733,7 +31733,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" customHeight="1" spans="1:26">
+    <row r="9" ht="14.25" customHeight="1" spans="1:26">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -31761,7 +31761,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" customHeight="1" spans="1:26">
+    <row r="10" ht="14.25" customHeight="1" spans="1:26">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -31789,7 +31789,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" customHeight="1" spans="1:26">
+    <row r="11" ht="14.25" customHeight="1" spans="1:26">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -31817,7 +31817,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" customHeight="1" spans="1:26">
+    <row r="12" ht="14.25" customHeight="1" spans="1:26">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -31845,7 +31845,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" customHeight="1" spans="1:26">
+    <row r="13" ht="14.25" customHeight="1" spans="1:26">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -31873,7 +31873,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" customHeight="1" spans="1:26">
+    <row r="14" ht="14.25" customHeight="1" spans="1:26">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -31901,7 +31901,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" customHeight="1" spans="1:26">
+    <row r="15" ht="14.25" customHeight="1" spans="1:26">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -31929,7 +31929,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" customHeight="1" spans="1:26">
+    <row r="16" ht="14.25" customHeight="1" spans="1:26">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -31957,7 +31957,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" customHeight="1" spans="1:26">
+    <row r="17" ht="14.25" customHeight="1" spans="1:26">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -31985,7 +31985,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" customHeight="1" spans="1:26">
+    <row r="18" ht="14.25" customHeight="1" spans="1:26">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -32013,7 +32013,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" customHeight="1" spans="1:26">
+    <row r="19" ht="14.25" customHeight="1" spans="1:26">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -32041,7 +32041,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" customHeight="1" spans="1:26">
+    <row r="20" ht="14.25" customHeight="1" spans="1:26">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -32069,7 +32069,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" customHeight="1" spans="1:26">
+    <row r="21" ht="14.25" customHeight="1" spans="1:26">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
